--- a/University Menu (for Windows).xlsx
+++ b/University Menu (for Windows).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ATKK\home\j\jmyllys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projektit\University Menu\v3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
     <t>Määrittää odotusajan ennen päivitysajankohdan tarkistusta verkkoyhteyden muutoksen jälkeen (minuuttia)</t>
   </si>
   <si>
-    <t>University Menu (for Windows) - v3.1.1</t>
+    <t>University Menu (for Windows) - v3.2.1</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1540,7 @@
   <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2110,7 +2110,7 @@
         <v>74</v>
       </c>
       <c r="F26" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>243</v>

--- a/University Menu (for Windows).xlsx
+++ b/University Menu (for Windows).xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$155</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="344">
   <si>
     <t>Oletusarvo</t>
   </si>
@@ -1043,7 +1046,19 @@
     <t>Määrittää odotusajan ennen päivitysajankohdan tarkistusta verkkoyhteyden muutoksen jälkeen (minuuttia)</t>
   </si>
   <si>
-    <t>University Menu (for Windows) - v3.2.1</t>
+    <t>AllowOSUpgrade</t>
+  </si>
+  <si>
+    <t>Ottaa Käyttöjärjestelmä vaatii päivityksen -tarkastajan käyttöön</t>
+  </si>
+  <si>
+    <t>OSUpgradePopupInterval</t>
+  </si>
+  <si>
+    <t>Käyttöjärjestelmän päivitystarkastajan esitysväli (päivää)</t>
+  </si>
+  <si>
+    <t>University Menu (for Windows) - v3.4.0</t>
   </si>
 </sst>
 </file>
@@ -1537,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1557,7 +1572,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="4"/>
@@ -1590,22 +1605,19 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1613,22 +1625,19 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1636,22 +1645,19 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>62</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1659,22 +1665,19 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1682,22 +1685,19 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1705,22 +1705,19 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,22 +1725,19 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1751,22 +1745,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1774,22 +1765,19 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1797,22 +1785,19 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1820,22 +1805,19 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1843,22 +1825,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1866,22 +1845,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>325</v>
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>330</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,22 +1865,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>326</v>
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>331</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1912,22 +1885,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>327</v>
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>333</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1935,22 +1905,19 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>328</v>
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>332</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1958,22 +1925,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>329</v>
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>334</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1981,19 +1945,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="6">
-        <v>16000</v>
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2001,19 +1965,19 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="6">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,19 +1985,19 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="6">
-        <v>180</v>
+        <v>26</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,19 +2005,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2061,19 +2025,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2081,19 +2045,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="6">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,19 +2065,19 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="6">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,19 +2085,19 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2141,19 +2105,19 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2161,19 +2125,19 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,16 +2148,16 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2204,16 +2168,16 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>249</v>
+        <v>168</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2224,16 +2188,16 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>310</v>
+        <v>168</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2244,16 +2208,16 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>311</v>
+        <v>168</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2264,16 +2228,16 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>312</v>
+        <v>22</v>
+      </c>
+      <c r="F34" s="6">
+        <v>605</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2284,16 +2248,16 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>304</v>
+        <v>21</v>
+      </c>
+      <c r="F35" s="6">
+        <v>438</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2307,13 +2271,13 @@
         <v>107</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>305</v>
+      <c r="G36" s="26" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2327,13 +2291,13 @@
         <v>107</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2347,13 +2311,13 @@
         <v>107</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="27" t="s">
-        <v>316</v>
+      <c r="G38" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2367,13 +2331,13 @@
         <v>107</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="6">
-        <v>60</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>303</v>
+        <v>131</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,13 +2351,13 @@
         <v>107</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>313</v>
+      <c r="G40" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2407,13 +2371,13 @@
         <v>107</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="48" t="s">
-        <v>314</v>
+      <c r="G41" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2427,13 +2391,13 @@
         <v>107</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>315</v>
+      <c r="G42" s="48" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2447,13 +2411,13 @@
         <v>107</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>302</v>
+        <v>111</v>
+      </c>
+      <c r="F43" s="6">
+        <v>60</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,13 +2431,13 @@
         <v>107</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2487,13 +2451,13 @@
         <v>107</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="48" t="s">
-        <v>308</v>
+      <c r="G45" s="29" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,13 +2471,13 @@
         <v>107</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>309</v>
+      <c r="G46" s="48" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2527,13 +2491,13 @@
         <v>107</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>322</v>
+        <v>109</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2547,13 +2511,13 @@
         <v>107</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>174</v>
+        <v>134</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2567,13 +2531,13 @@
         <v>107</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>324</v>
+        <v>135</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2581,19 +2545,19 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2601,19 +2565,19 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>29</v>
+        <v>320</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>184</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2621,19 +2585,19 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>4</v>
+        <v>321</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>174</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,16 +2608,16 @@
         <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="51" t="s">
-        <v>4</v>
+        <v>319</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>173</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2664,16 +2628,16 @@
         <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>159</v>
+        <v>144</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2684,16 +2648,16 @@
         <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2704,16 +2668,16 @@
         <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="51" t="s">
-        <v>159</v>
+        <v>128</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2721,19 +2685,19 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>4</v>
+        <v>129</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>174</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2741,19 +2705,19 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>202</v>
+        <v>173</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,19 +2725,19 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="30" t="s">
-        <v>191</v>
+      <c r="G59" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2781,19 +2745,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,19 +2765,19 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>192</v>
+      <c r="G61" s="30" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,19 +2785,19 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="30" t="s">
-        <v>177</v>
+      <c r="G62" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2841,19 +2805,19 @@
         <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2861,19 +2825,19 @@
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2881,19 +2845,19 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2901,19 +2865,19 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>4</v>
+        <v>110</v>
+      </c>
+      <c r="F66" s="6">
+        <v>14</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2921,19 +2885,19 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>196</v>
+      <c r="G67" s="30" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2944,16 +2908,16 @@
         <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>273</v>
+        <v>4</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2964,16 +2928,16 @@
         <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2984,16 +2948,16 @@
         <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="48" t="s">
-        <v>222</v>
+        <v>169</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3004,16 +2968,16 @@
         <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="6">
-        <v>587</v>
+        <v>126</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="G71" s="48" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3021,19 +2985,19 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="G72" s="48" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3041,19 +3005,19 @@
         <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>4</v>
+        <v>108</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="G73" s="48" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3064,16 +3028,16 @@
         <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G74" s="48" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3084,16 +3048,16 @@
         <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F75" s="6">
-        <v>4</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>255</v>
+        <v>116</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3104,16 +3068,16 @@
         <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="31" t="s">
-        <v>258</v>
+      <c r="G76" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3127,13 +3091,13 @@
         <v>72</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>257</v>
+        <v>73</v>
+      </c>
+      <c r="F77" s="6">
+        <v>16000</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3147,13 +3111,13 @@
         <v>72</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F78" s="6">
-        <v>10</v>
-      </c>
-      <c r="G78" s="33" t="s">
-        <v>256</v>
+        <v>3</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3167,13 +3131,13 @@
         <v>72</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F79" s="6">
-        <v>25</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>254</v>
+        <v>180</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3187,13 +3151,13 @@
         <v>72</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>259</v>
+        <v>4</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,13 +3171,13 @@
         <v>72</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G81" s="36" t="s">
-        <v>260</v>
+        <v>4</v>
+      </c>
+      <c r="G81" s="35" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,13 +3191,13 @@
         <v>72</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G82" s="37" t="s">
-        <v>261</v>
+        <v>77</v>
+      </c>
+      <c r="F82" s="6">
+        <v>8</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3244,16 +3208,16 @@
         <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>317</v>
+        <v>74</v>
+      </c>
+      <c r="F83" s="6">
+        <v>30</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3264,16 +3228,16 @@
         <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>318</v>
+        <v>161</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3281,19 +3245,19 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>186</v>
+        <v>83</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3301,19 +3265,19 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="F86" s="51" t="s">
+        <v>162</v>
       </c>
       <c r="G86" s="38" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3321,19 +3285,19 @@
         <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G87" s="40" t="s">
-        <v>188</v>
+      <c r="G87" s="38" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3344,16 +3308,16 @@
         <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G88" s="41" t="s">
-        <v>224</v>
+        <v>4</v>
+      </c>
+      <c r="G88" s="40" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,16 +3328,16 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G89" s="42" t="s">
-        <v>225</v>
+        <v>8</v>
+      </c>
+      <c r="G89" s="41" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3384,16 +3348,16 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3407,13 +3371,13 @@
         <v>72</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F91" s="6">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3427,13 +3391,13 @@
         <v>72</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" s="6">
         <v>4</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3447,13 +3411,13 @@
         <v>72</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3467,13 +3431,13 @@
         <v>72</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F94" s="6">
-        <v>-1</v>
+        <v>88</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3487,13 +3451,13 @@
         <v>72</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F95" s="6">
-        <v>7</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>262</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="42" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3507,13 +3471,13 @@
         <v>72</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F96" s="6">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3527,13 +3491,13 @@
         <v>72</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3547,13 +3511,13 @@
         <v>72</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F98" s="6">
-        <v>1</v>
-      </c>
-      <c r="G98" s="42" t="s">
-        <v>269</v>
+        <v>91</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3567,13 +3531,13 @@
         <v>72</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3581,19 +3545,19 @@
         <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>4</v>
+        <v>341</v>
+      </c>
+      <c r="F100" s="6">
+        <v>3</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>193</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3601,19 +3565,19 @@
         <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="43" t="s">
-        <v>201</v>
+        <v>95</v>
+      </c>
+      <c r="F101" s="6">
+        <v>7</v>
+      </c>
+      <c r="G101" s="42" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3624,16 +3588,16 @@
         <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>221</v>
+        <v>4</v>
+      </c>
+      <c r="G102" s="43" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3641,19 +3605,19 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3661,19 +3625,19 @@
         <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="F104" s="6">
+        <v>-1</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3681,19 +3645,19 @@
         <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="F105" s="6">
+        <v>7</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3701,19 +3665,19 @@
         <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106" s="43" t="s">
-        <v>198</v>
+        <v>94</v>
+      </c>
+      <c r="F106" s="6">
+        <v>4</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,19 +3685,19 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>182</v>
+      <c r="G107" s="43" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3741,19 +3705,19 @@
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" s="44" t="s">
-        <v>199</v>
+        <v>100</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3764,16 +3728,16 @@
         <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="G109" s="44" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3784,16 +3748,16 @@
         <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G110" s="45" t="s">
-        <v>300</v>
+        <v>99</v>
+      </c>
+      <c r="F110" s="6">
+        <v>1</v>
+      </c>
+      <c r="G110" s="44" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3804,16 +3768,19 @@
         <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>107</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>130</v>
+        <v>52</v>
+      </c>
+      <c r="D111" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G111" s="46" t="s">
-        <v>301</v>
+        <v>4</v>
+      </c>
+      <c r="G111" s="45" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3824,16 +3791,19 @@
         <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>107</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>118</v>
+        <v>52</v>
+      </c>
+      <c r="D112" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G112" s="47" t="s">
-        <v>289</v>
+      <c r="G112" s="46" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3844,16 +3814,19 @@
         <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="D113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="46" t="s">
-        <v>290</v>
+      <c r="G113" s="47" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3864,16 +3837,19 @@
         <v>39</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>120</v>
+        <v>52</v>
+      </c>
+      <c r="D114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>291</v>
+      <c r="G114" s="46" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3884,16 +3860,19 @@
         <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>107</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>112</v>
+        <v>52</v>
+      </c>
+      <c r="D115" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3904,16 +3883,19 @@
         <v>39</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>113</v>
+        <v>52</v>
+      </c>
+      <c r="D116" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="48" t="s">
-        <v>284</v>
+      <c r="G116" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3924,16 +3906,19 @@
         <v>39</v>
       </c>
       <c r="C117" t="s">
-        <v>107</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="D117" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G117" s="48" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3944,16 +3929,19 @@
         <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>107</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>124</v>
+        <v>52</v>
+      </c>
+      <c r="D118" t="s">
+        <v>59</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G118" s="48" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3964,16 +3952,19 @@
         <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>107</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F119" s="6">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="D119" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G119" s="48" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3984,16 +3975,19 @@
         <v>39</v>
       </c>
       <c r="C120" t="s">
-        <v>107</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>121</v>
+        <v>52</v>
+      </c>
+      <c r="D120" t="s">
+        <v>59</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G120" s="48" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4004,16 +3998,19 @@
         <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>107</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>122</v>
+        <v>52</v>
+      </c>
+      <c r="D121" t="s">
+        <v>59</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G121" s="48" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4024,16 +4021,19 @@
         <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>107</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>123</v>
+        <v>52</v>
+      </c>
+      <c r="D122" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G122" s="48" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4044,16 +4044,19 @@
         <v>39</v>
       </c>
       <c r="C123" t="s">
-        <v>107</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>125</v>
+        <v>52</v>
+      </c>
+      <c r="D123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="G123" s="48" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4064,16 +4067,19 @@
         <v>39</v>
       </c>
       <c r="C124" t="s">
-        <v>107</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>126</v>
+        <v>52</v>
+      </c>
+      <c r="D124" t="s">
+        <v>59</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="G124" s="48" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4084,16 +4090,19 @@
         <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>107</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>127</v>
+        <v>52</v>
+      </c>
+      <c r="D125" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="G125" s="48" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4104,16 +4113,19 @@
         <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>151</v>
+        <v>52</v>
+      </c>
+      <c r="D126" t="s">
+        <v>59</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G126" s="48" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4124,16 +4136,19 @@
         <v>39</v>
       </c>
       <c r="C127" t="s">
-        <v>107</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
+      </c>
+      <c r="D127" t="s">
+        <v>59</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G127" s="48" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4144,16 +4159,16 @@
         <v>39</v>
       </c>
       <c r="C128" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="G128" s="48" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4164,16 +4179,16 @@
         <v>39</v>
       </c>
       <c r="C129" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="G129" s="48" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4184,16 +4199,16 @@
         <v>39</v>
       </c>
       <c r="C130" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>278</v>
+        <v>159</v>
+      </c>
+      <c r="G130" s="48" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4204,16 +4219,16 @@
         <v>39</v>
       </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4224,16 +4239,16 @@
         <v>39</v>
       </c>
       <c r="C132" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>168</v>
+        <v>7</v>
+      </c>
+      <c r="F132" s="6">
+        <v>587</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4244,16 +4259,16 @@
         <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F133" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4264,16 +4279,16 @@
         <v>39</v>
       </c>
       <c r="C134" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" s="6">
-        <v>605</v>
+        <v>54</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4284,16 +4299,16 @@
         <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F135" s="6">
-        <v>438</v>
-      </c>
-      <c r="G135" s="48" t="s">
-        <v>275</v>
+        <v>55</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4303,14 +4318,17 @@
       <c r="B136" t="s">
         <v>39</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>16</v>
+      <c r="C136" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G136" s="48" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4321,13 +4339,13 @@
         <v>39</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G137" s="48" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4355,13 +4373,13 @@
         <v>39</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G139" s="48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4372,13 +4390,13 @@
         <v>39</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>43</v>
+        <v>335</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G140" s="48" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4389,13 +4407,13 @@
         <v>39</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G141" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4406,13 +4424,13 @@
         <v>39</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G142" s="48" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4440,13 +4458,13 @@
         <v>39</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G144" s="48" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,13 +4475,13 @@
         <v>39</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G145" s="48" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,13 +4492,13 @@
         <v>39</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F146" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G146" s="48" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4491,13 +4509,13 @@
         <v>39</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G147" s="48" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4508,13 +4526,13 @@
         <v>39</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F148" s="6">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="G148" s="48" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,13 +4543,13 @@
         <v>39</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F149" s="6">
-        <v>225</v>
+        <v>16</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G149" s="48" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4542,13 +4560,13 @@
         <v>39</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F150" s="6">
-        <v>255</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>216</v>
+        <v>49</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G150" s="48" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4559,13 +4577,13 @@
         <v>39</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F151" s="6">
-        <v>15</v>
-      </c>
-      <c r="G151" s="48" t="s">
-        <v>338</v>
+        <v>50</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4576,13 +4594,13 @@
         <v>39</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G152" s="48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4593,13 +4611,13 @@
         <v>39</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F153" s="51" t="s">
-        <v>154</v>
+        <v>337</v>
+      </c>
+      <c r="F153" s="6">
+        <v>15</v>
       </c>
       <c r="G153" s="48" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4610,18 +4628,56 @@
         <v>39</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F154" s="51" t="s">
-        <v>153</v>
+        <v>3</v>
+      </c>
+      <c r="F154" s="51">
+        <v>255</v>
       </c>
       <c r="G154" s="48" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" t="s">
+        <v>39</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" s="51">
+        <v>225</v>
+      </c>
+      <c r="G155" s="48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="6">
+        <v>4</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G154">
-    <sortCondition ref="D2"/>
+  <autoFilter ref="A2:G155"/>
+  <sortState ref="A3:G156">
+    <sortCondition ref="A3:A156"/>
+    <sortCondition ref="B3:B156"/>
+    <sortCondition ref="C3:C156"/>
+    <sortCondition ref="D3:D156"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
